--- a/lci-Maricunga.xlsx
+++ b/lci-Maricunga.xlsx
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>0.006678629923412826</v>
+        <v>0.00101720880078009</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.04091877449653371</v>
+        <v>0.0006137816174480061</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
